--- a/data/pca/factorExposure/factorExposure_2018-11-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0761551645227713</v>
+        <v>0.0506039564561289</v>
       </c>
       <c r="C2">
-        <v>-0.05056182645169953</v>
+        <v>-0.02795152894922956</v>
       </c>
       <c r="D2">
-        <v>0.0768661118310025</v>
+        <v>-0.02115215801466416</v>
       </c>
       <c r="E2">
-        <v>0.01534687089226205</v>
+        <v>-0.02543957977825924</v>
       </c>
       <c r="F2">
-        <v>-0.09633309634952079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02645173999593637</v>
+      </c>
+      <c r="G2">
+        <v>0.100749422873385</v>
+      </c>
+      <c r="H2">
+        <v>0.06878613757050402</v>
+      </c>
+      <c r="I2">
+        <v>0.06819403510646145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1808899647657786</v>
+        <v>0.1275313770285343</v>
       </c>
       <c r="C3">
-        <v>0.02579246540141596</v>
+        <v>-0.07160579976109097</v>
       </c>
       <c r="D3">
-        <v>0.1504287847318626</v>
+        <v>-0.01002669513418905</v>
       </c>
       <c r="E3">
-        <v>0.07201524967906073</v>
+        <v>0.01114344199525023</v>
       </c>
       <c r="F3">
-        <v>-0.3777345696289297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.008592998589012161</v>
+      </c>
+      <c r="G3">
+        <v>0.3670274097389908</v>
+      </c>
+      <c r="H3">
+        <v>0.2743497010651793</v>
+      </c>
+      <c r="I3">
+        <v>0.05286545739745695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07099940574235526</v>
+        <v>0.0572115374875215</v>
       </c>
       <c r="C4">
-        <v>-0.02258902326280954</v>
+        <v>-0.04292232109175997</v>
       </c>
       <c r="D4">
-        <v>0.06127816195163116</v>
+        <v>0.008383891291196556</v>
       </c>
       <c r="E4">
-        <v>0.05653244154420096</v>
+        <v>-0.02392233344063796</v>
       </c>
       <c r="F4">
-        <v>-0.0375231827639603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05571443551241657</v>
+      </c>
+      <c r="G4">
+        <v>0.05831567848426344</v>
+      </c>
+      <c r="H4">
+        <v>0.02423385904083778</v>
+      </c>
+      <c r="I4">
+        <v>0.04530085193799328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.005102404756105087</v>
+        <v>0.02740630390748724</v>
       </c>
       <c r="C6">
-        <v>-0.0009761889249427896</v>
+        <v>-0.0187687851948857</v>
       </c>
       <c r="D6">
-        <v>0.0004433849526697631</v>
+        <v>0.0004978433461583119</v>
       </c>
       <c r="E6">
-        <v>-0.00567386080285148</v>
+        <v>-0.001973490719838732</v>
       </c>
       <c r="F6">
-        <v>-0.003511963716255773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02712581273305965</v>
+      </c>
+      <c r="G6">
+        <v>0.01525901001639507</v>
+      </c>
+      <c r="H6">
+        <v>-0.03134910659749529</v>
+      </c>
+      <c r="I6">
+        <v>-0.01014399332763618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0331920898927112</v>
+        <v>0.02943988740469089</v>
       </c>
       <c r="C7">
-        <v>-0.0174845003956184</v>
+        <v>-0.01842779280483973</v>
       </c>
       <c r="D7">
-        <v>0.04815611757577009</v>
+        <v>0.03359270632138164</v>
       </c>
       <c r="E7">
-        <v>0.01586656030418557</v>
+        <v>-0.01640711500933827</v>
       </c>
       <c r="F7">
-        <v>-0.06973428891109222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0258188569651832</v>
+      </c>
+      <c r="G7">
+        <v>0.04382051980980661</v>
+      </c>
+      <c r="H7">
+        <v>0.04860813737877054</v>
+      </c>
+      <c r="I7">
+        <v>0.001209838983865579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03715545853469268</v>
+        <v>0.01304137851436413</v>
       </c>
       <c r="C8">
-        <v>0.005372120113561327</v>
+        <v>-0.04523647756801514</v>
       </c>
       <c r="D8">
-        <v>0.04977858151827472</v>
+        <v>0.006867018213661322</v>
       </c>
       <c r="E8">
-        <v>0.05262546619522161</v>
+        <v>-0.009147032026072217</v>
       </c>
       <c r="F8">
-        <v>-0.06207131091535669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02322874916537799</v>
+      </c>
+      <c r="G8">
+        <v>0.06108784310012624</v>
+      </c>
+      <c r="H8">
+        <v>0.05322563788869435</v>
+      </c>
+      <c r="I8">
+        <v>0.03427349291451068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05637644204913072</v>
+        <v>0.04820261096953662</v>
       </c>
       <c r="C9">
-        <v>-0.02471187382763888</v>
+        <v>-0.03512648027334765</v>
       </c>
       <c r="D9">
-        <v>0.04488239370111752</v>
+        <v>0.01174031829620446</v>
       </c>
       <c r="E9">
-        <v>0.06452891151669202</v>
+        <v>-0.02234530065449833</v>
       </c>
       <c r="F9">
-        <v>-0.03772983422281663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.03850337423013567</v>
+      </c>
+      <c r="G9">
+        <v>0.06916624385163993</v>
+      </c>
+      <c r="H9">
+        <v>0.02508990746711039</v>
+      </c>
+      <c r="I9">
+        <v>0.04494675944418717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.04053881089766604</v>
+        <v>0.06527409233245292</v>
       </c>
       <c r="C10">
-        <v>-0.08716480554296928</v>
+        <v>0.1556194735094753</v>
       </c>
       <c r="D10">
-        <v>-0.1062023751794671</v>
+        <v>0.004484825725384218</v>
       </c>
       <c r="E10">
-        <v>-0.08497099958416794</v>
+        <v>-0.001459423584521373</v>
       </c>
       <c r="F10">
-        <v>-0.05218914171104654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06034148926187835</v>
+      </c>
+      <c r="G10">
+        <v>0.05284446037663471</v>
+      </c>
+      <c r="H10">
+        <v>0.02892112186811138</v>
+      </c>
+      <c r="I10">
+        <v>0.03663240416283878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04747756189707835</v>
+        <v>0.03970005016617027</v>
       </c>
       <c r="C11">
-        <v>-0.0004418517890757081</v>
+        <v>-0.03934977888701074</v>
       </c>
       <c r="D11">
-        <v>0.03310397555863722</v>
+        <v>-0.009055311008389343</v>
       </c>
       <c r="E11">
-        <v>0.01331342970254633</v>
+        <v>-0.01091931692137411</v>
       </c>
       <c r="F11">
-        <v>-0.03968500185374575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0103161733193142</v>
+      </c>
+      <c r="G11">
+        <v>0.0329769981915453</v>
+      </c>
+      <c r="H11">
+        <v>0.001298758233919585</v>
+      </c>
+      <c r="I11">
+        <v>0.01673532935658286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04241297951217908</v>
+        <v>0.03900145113786235</v>
       </c>
       <c r="C12">
-        <v>-0.002198009999860215</v>
+        <v>-0.03628240660623826</v>
       </c>
       <c r="D12">
-        <v>0.02973570754833166</v>
+        <v>0.001518179342534092</v>
       </c>
       <c r="E12">
-        <v>0.02956210002948384</v>
+        <v>-0.008774175616914069</v>
       </c>
       <c r="F12">
-        <v>-0.03064408911991599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02007506222364728</v>
+      </c>
+      <c r="G12">
+        <v>0.01246512297187331</v>
+      </c>
+      <c r="H12">
+        <v>0.004040079697300848</v>
+      </c>
+      <c r="I12">
+        <v>0.007225602823776772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04553786908528618</v>
+        <v>0.03668050964821682</v>
       </c>
       <c r="C13">
-        <v>-0.01433709504114783</v>
+        <v>-0.01944303884970583</v>
       </c>
       <c r="D13">
-        <v>0.05390183142008759</v>
+        <v>-0.02006566758986972</v>
       </c>
       <c r="E13">
-        <v>-0.007203624362697201</v>
+        <v>-9.997601346843929e-05</v>
       </c>
       <c r="F13">
-        <v>-0.1042467395034721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02655580674547712</v>
+      </c>
+      <c r="G13">
+        <v>0.08369702196763466</v>
+      </c>
+      <c r="H13">
+        <v>0.03613570843343871</v>
+      </c>
+      <c r="I13">
+        <v>0.03471462839566367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02262988099247838</v>
+        <v>0.0192770479387069</v>
       </c>
       <c r="C14">
-        <v>-0.01387535867681228</v>
+        <v>-0.01876136618007256</v>
       </c>
       <c r="D14">
-        <v>0.0422404413890862</v>
+        <v>0.004723558212414495</v>
       </c>
       <c r="E14">
-        <v>0.02489491226746422</v>
+        <v>-0.02270666114685757</v>
       </c>
       <c r="F14">
-        <v>-0.03355023764287142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02014156220396481</v>
+      </c>
+      <c r="G14">
+        <v>0.03533943028341888</v>
+      </c>
+      <c r="H14">
+        <v>0.06337540915764529</v>
+      </c>
+      <c r="I14">
+        <v>0.0180567159803211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03779995052531906</v>
+        <v>0.03367076556372914</v>
       </c>
       <c r="C16">
-        <v>-0.0009099258547421164</v>
+        <v>-0.03648735436075129</v>
       </c>
       <c r="D16">
-        <v>0.02970735189092193</v>
+        <v>-0.003675628585766854</v>
       </c>
       <c r="E16">
-        <v>0.01501973188872938</v>
+        <v>-0.013205873323639</v>
       </c>
       <c r="F16">
-        <v>-0.02998567084033466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01116510824742855</v>
+      </c>
+      <c r="G16">
+        <v>0.02869029005504531</v>
+      </c>
+      <c r="H16">
+        <v>0.004917736484941827</v>
+      </c>
+      <c r="I16">
+        <v>0.006057972112360336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05866195607010994</v>
+        <v>0.04384900327286061</v>
       </c>
       <c r="C19">
-        <v>0.007356107919767331</v>
+        <v>-0.04080515367309332</v>
       </c>
       <c r="D19">
-        <v>0.04678046059292592</v>
+        <v>-0.009365890432772144</v>
       </c>
       <c r="E19">
-        <v>0.01409626244707319</v>
+        <v>-0.009466502554487055</v>
       </c>
       <c r="F19">
-        <v>-0.07961528599704935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02038220054719099</v>
+      </c>
+      <c r="G19">
+        <v>0.08147363706643693</v>
+      </c>
+      <c r="H19">
+        <v>0.04709376577875395</v>
+      </c>
+      <c r="I19">
+        <v>0.02154950082659282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02152824072398889</v>
+        <v>0.01421663566942993</v>
       </c>
       <c r="C20">
-        <v>-0.01112385144385296</v>
+        <v>-0.02091561445699818</v>
       </c>
       <c r="D20">
-        <v>0.04465436426500972</v>
+        <v>0.002186136112941273</v>
       </c>
       <c r="E20">
-        <v>0.03955214288191492</v>
+        <v>-0.01290054738099188</v>
       </c>
       <c r="F20">
-        <v>-0.06078662162076442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01979745945156378</v>
+      </c>
+      <c r="G20">
+        <v>0.05254593432370792</v>
+      </c>
+      <c r="H20">
+        <v>0.06092593847282874</v>
+      </c>
+      <c r="I20">
+        <v>0.007617729274175756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01747999387633726</v>
+        <v>0.02593340180749612</v>
       </c>
       <c r="C21">
-        <v>0.009357501000366383</v>
+        <v>-0.02613985855253017</v>
       </c>
       <c r="D21">
-        <v>0.04094828139740948</v>
+        <v>0.009543760863677295</v>
       </c>
       <c r="E21">
-        <v>0.01903165119173071</v>
+        <v>-0.006628808711388398</v>
       </c>
       <c r="F21">
-        <v>-0.06796574310215237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01053796550123008</v>
+      </c>
+      <c r="G21">
+        <v>0.05665888614758919</v>
+      </c>
+      <c r="H21">
+        <v>0.02582298440760902</v>
+      </c>
+      <c r="I21">
+        <v>0.05523683210189446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03738867908210538</v>
+        <v>0.03186719126765424</v>
       </c>
       <c r="C24">
-        <v>0.0001501363655234852</v>
+        <v>-0.03320381851747897</v>
       </c>
       <c r="D24">
-        <v>0.0279654197463522</v>
+        <v>-0.00270136340148034</v>
       </c>
       <c r="E24">
-        <v>0.01840634411865951</v>
+        <v>-0.00976348258182087</v>
       </c>
       <c r="F24">
-        <v>-0.03987189070338377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01152652225575485</v>
+      </c>
+      <c r="G24">
+        <v>0.03175933031886377</v>
+      </c>
+      <c r="H24">
+        <v>0.001621274933560261</v>
+      </c>
+      <c r="I24">
+        <v>0.009564911450436107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03929034021745247</v>
+        <v>0.04008639103265042</v>
       </c>
       <c r="C25">
-        <v>-0.002480876920223151</v>
+        <v>-0.03252229871035166</v>
       </c>
       <c r="D25">
-        <v>0.03090735422563392</v>
+        <v>-0.003431227574216737</v>
       </c>
       <c r="E25">
-        <v>0.0234786145857192</v>
+        <v>-0.00782861346270248</v>
       </c>
       <c r="F25">
-        <v>-0.04541472477904328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01908685241282208</v>
+      </c>
+      <c r="G25">
+        <v>0.04165271456928882</v>
+      </c>
+      <c r="H25">
+        <v>-0.002457202683814317</v>
+      </c>
+      <c r="I25">
+        <v>0.0174884565421259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01944102168976235</v>
+        <v>0.01355934719868869</v>
       </c>
       <c r="C26">
-        <v>0.00600705642148877</v>
+        <v>-0.02051072598393718</v>
       </c>
       <c r="D26">
-        <v>0.05373580351767133</v>
+        <v>-0.008728355437318256</v>
       </c>
       <c r="E26">
-        <v>0.005197282218730284</v>
+        <v>0.008665860814924483</v>
       </c>
       <c r="F26">
-        <v>-0.03914532551192238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.0203793903912351</v>
+      </c>
+      <c r="G26">
+        <v>0.04163461301060034</v>
+      </c>
+      <c r="H26">
+        <v>0.03728650542072814</v>
+      </c>
+      <c r="I26">
+        <v>0.01463279069448046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1025980640665996</v>
+        <v>0.05781973126038027</v>
       </c>
       <c r="C27">
-        <v>-0.03337084999130626</v>
+        <v>-0.02182949755230743</v>
       </c>
       <c r="D27">
-        <v>0.03997493875632836</v>
+        <v>-0.0001211985740053679</v>
       </c>
       <c r="E27">
-        <v>0.04168271095276521</v>
+        <v>-0.02332859263859141</v>
       </c>
       <c r="F27">
-        <v>-0.04598772986279352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01420773701521396</v>
+      </c>
+      <c r="G27">
+        <v>0.04024036950142106</v>
+      </c>
+      <c r="H27">
+        <v>0.03363537138681788</v>
+      </c>
+      <c r="I27">
+        <v>0.01946317353398616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0593009268281368</v>
+        <v>0.09616376568228058</v>
       </c>
       <c r="C28">
-        <v>-0.1130402363956184</v>
+        <v>0.2393085248336777</v>
       </c>
       <c r="D28">
-        <v>-0.1798732403447834</v>
+        <v>0.01353059560691267</v>
       </c>
       <c r="E28">
-        <v>-0.1251606167696835</v>
+        <v>0.01003105888606789</v>
       </c>
       <c r="F28">
-        <v>-0.02896491403111862</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.07808271896069141</v>
+      </c>
+      <c r="G28">
+        <v>0.03214969573643369</v>
+      </c>
+      <c r="H28">
+        <v>0.04803501843995257</v>
+      </c>
+      <c r="I28">
+        <v>0.02965164382469645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02550562438307171</v>
+        <v>0.02159874323523523</v>
       </c>
       <c r="C29">
-        <v>-0.00844503292297095</v>
+        <v>-0.01931482014837102</v>
       </c>
       <c r="D29">
-        <v>0.04165950285810267</v>
+        <v>0.005841969113432675</v>
       </c>
       <c r="E29">
-        <v>0.03455974874156197</v>
+        <v>-0.02024244146652299</v>
       </c>
       <c r="F29">
-        <v>-0.01678790994651476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02552195759973083</v>
+      </c>
+      <c r="G29">
+        <v>0.02963456884832896</v>
+      </c>
+      <c r="H29">
+        <v>0.06087340808405441</v>
+      </c>
+      <c r="I29">
+        <v>0.02084442955635944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09767383263423499</v>
+        <v>0.07830928738428951</v>
       </c>
       <c r="C30">
-        <v>-0.04802203335656104</v>
+        <v>-0.04982258931780115</v>
       </c>
       <c r="D30">
-        <v>0.07150223770223933</v>
+        <v>-0.0471740416709553</v>
       </c>
       <c r="E30">
-        <v>0.02865787811787902</v>
+        <v>-0.0348532040784172</v>
       </c>
       <c r="F30">
-        <v>-0.1002037944514012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04737876701746381</v>
+      </c>
+      <c r="G30">
+        <v>0.09416864330795935</v>
+      </c>
+      <c r="H30">
+        <v>0.0143066402452787</v>
+      </c>
+      <c r="I30">
+        <v>-0.005109205943554074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05591693795561564</v>
+        <v>0.05364754969763362</v>
       </c>
       <c r="C31">
-        <v>-0.01396333897043937</v>
+        <v>-0.01907590354375886</v>
       </c>
       <c r="D31">
-        <v>0.03562331194161152</v>
+        <v>-0.009747506173177977</v>
       </c>
       <c r="E31">
-        <v>-0.02449412518803519</v>
+        <v>-0.02297751028738388</v>
       </c>
       <c r="F31">
-        <v>0.01845640233893359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005935220475343336</v>
+      </c>
+      <c r="G31">
+        <v>-0.0008435154867258785</v>
+      </c>
+      <c r="H31">
+        <v>0.05409297570921534</v>
+      </c>
+      <c r="I31">
+        <v>0.04357579924998393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05140260372390902</v>
+        <v>0.0286203946543125</v>
       </c>
       <c r="C32">
-        <v>-0.01113374729403639</v>
+        <v>-0.04123644561869715</v>
       </c>
       <c r="D32">
-        <v>0.05702632692976246</v>
+        <v>0.01095104887189371</v>
       </c>
       <c r="E32">
-        <v>0.04554953165256759</v>
+        <v>-0.03956215877710263</v>
       </c>
       <c r="F32">
-        <v>-0.06457716111675864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02992591613110192</v>
+      </c>
+      <c r="G32">
+        <v>0.07786139171920789</v>
+      </c>
+      <c r="H32">
+        <v>0.004865077214907745</v>
+      </c>
+      <c r="I32">
+        <v>0.005678551509588718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05011587807122632</v>
+        <v>0.04295721212497369</v>
       </c>
       <c r="C33">
-        <v>0.007516576659883708</v>
+        <v>-0.04808423441060815</v>
       </c>
       <c r="D33">
-        <v>0.07806657530245065</v>
+        <v>-0.02583748382206677</v>
       </c>
       <c r="E33">
-        <v>0.02179668239418214</v>
+        <v>-0.003709949992964562</v>
       </c>
       <c r="F33">
-        <v>-0.06529427624700669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01434902763366268</v>
+      </c>
+      <c r="G33">
+        <v>0.06614524747583929</v>
+      </c>
+      <c r="H33">
+        <v>0.04641265533942494</v>
+      </c>
+      <c r="I33">
+        <v>0.03673808799333277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.03994429319490279</v>
+        <v>0.0355231826139126</v>
       </c>
       <c r="C34">
-        <v>-0.007833549070038619</v>
+        <v>-0.03790231763655363</v>
       </c>
       <c r="D34">
-        <v>0.03424782498126865</v>
+        <v>0.002027274289527023</v>
       </c>
       <c r="E34">
-        <v>0.02187329503943629</v>
+        <v>-0.0216427977080005</v>
       </c>
       <c r="F34">
-        <v>-0.03664917240123439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01195370746804755</v>
+      </c>
+      <c r="G34">
+        <v>0.03586723445476506</v>
+      </c>
+      <c r="H34">
+        <v>0.003065706933885626</v>
+      </c>
+      <c r="I34">
+        <v>0.01238752765350282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01571275539350319</v>
+        <v>0.01781422119617058</v>
       </c>
       <c r="C36">
-        <v>-0.01319219897382984</v>
+        <v>-0.0008272899519953673</v>
       </c>
       <c r="D36">
-        <v>0.01215249391872106</v>
+        <v>0.002571072028559179</v>
       </c>
       <c r="E36">
-        <v>0.01162255472535545</v>
+        <v>-0.006453830564546837</v>
       </c>
       <c r="F36">
-        <v>-0.02263928125193984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01302830506427874</v>
+      </c>
+      <c r="G36">
+        <v>0.02435524290384949</v>
+      </c>
+      <c r="H36">
+        <v>0.03392976029034633</v>
+      </c>
+      <c r="I36">
+        <v>0.02483115826813979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01724558043680158</v>
+        <v>0.0211945530805391</v>
       </c>
       <c r="C38">
-        <v>-0.006606969440669169</v>
+        <v>-0.008862780426586959</v>
       </c>
       <c r="D38">
-        <v>-0.009116332102411612</v>
+        <v>0.004987132227764596</v>
       </c>
       <c r="E38">
-        <v>0.007116233368438455</v>
+        <v>-0.01531689172232545</v>
       </c>
       <c r="F38">
-        <v>-0.01133516131766375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01593931842494298</v>
+      </c>
+      <c r="G38">
+        <v>0.04078121469723241</v>
+      </c>
+      <c r="H38">
+        <v>0.02479960368370447</v>
+      </c>
+      <c r="I38">
+        <v>0.02982706848057816</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05506018841659956</v>
+        <v>0.0411272433959432</v>
       </c>
       <c r="C39">
-        <v>-0.007258567794100072</v>
+        <v>-0.05340532487903621</v>
       </c>
       <c r="D39">
-        <v>0.05011272723135622</v>
+        <v>-0.01111474220179641</v>
       </c>
       <c r="E39">
-        <v>0.01141830242944567</v>
+        <v>-0.01488649974083324</v>
       </c>
       <c r="F39">
-        <v>-0.02831035978174349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.03081010828333056</v>
+      </c>
+      <c r="G39">
+        <v>0.05111335188184672</v>
+      </c>
+      <c r="H39">
+        <v>-0.0057061897723315</v>
+      </c>
+      <c r="I39">
+        <v>0.02452762479437719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05266731380315669</v>
+        <v>0.04348030549401252</v>
       </c>
       <c r="C40">
-        <v>-0.02652033162189021</v>
+        <v>-0.03835340563330149</v>
       </c>
       <c r="D40">
-        <v>0.08130956695009008</v>
+        <v>-0.02782964868502171</v>
       </c>
       <c r="E40">
-        <v>-0.002121458630711858</v>
+        <v>-0.0201515053196708</v>
       </c>
       <c r="F40">
-        <v>-0.07506745235172092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03087389737571103</v>
+      </c>
+      <c r="G40">
+        <v>0.07226736991334634</v>
+      </c>
+      <c r="H40">
+        <v>0.03575830975548235</v>
+      </c>
+      <c r="I40">
+        <v>0.03377747534190508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01109546456429184</v>
+        <v>0.0004322386370345818</v>
       </c>
       <c r="C41">
-        <v>0.004466495491084827</v>
+        <v>-0.003110338431465007</v>
       </c>
       <c r="D41">
-        <v>0.02552838860680387</v>
+        <v>0.0004137131204574579</v>
       </c>
       <c r="E41">
-        <v>0.01800196848258375</v>
+        <v>-0.006577789211062265</v>
       </c>
       <c r="F41">
-        <v>0.02131420338616141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0001752339927695942</v>
+      </c>
+      <c r="G41">
+        <v>0.0007128108758033366</v>
+      </c>
+      <c r="H41">
+        <v>0.05210975029313598</v>
+      </c>
+      <c r="I41">
+        <v>0.03875110181188676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3251158642438028</v>
+        <v>0.2319608253245963</v>
       </c>
       <c r="C42">
-        <v>0.8719585915031919</v>
+        <v>-0.3109589137154991</v>
       </c>
       <c r="D42">
-        <v>-0.1733856498522519</v>
+        <v>-0.08272884298389589</v>
       </c>
       <c r="E42">
-        <v>-0.2674755777197257</v>
+        <v>0.7691255548954772</v>
       </c>
       <c r="F42">
-        <v>0.02002779477418966</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.4573006411146625</v>
+      </c>
+      <c r="G42">
+        <v>-0.1236565991998276</v>
+      </c>
+      <c r="H42">
+        <v>-0.01206659227560485</v>
+      </c>
+      <c r="I42">
+        <v>-0.0115353281778975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.009697527268441293</v>
+        <v>0.002411802386814196</v>
       </c>
       <c r="C43">
-        <v>0.002380403313728396</v>
+        <v>-0.002731878442577926</v>
       </c>
       <c r="D43">
-        <v>0.02684629299589014</v>
+        <v>-0.003462602526223168</v>
       </c>
       <c r="E43">
-        <v>0.008571572011513736</v>
+        <v>-0.0005959001290814758</v>
       </c>
       <c r="F43">
-        <v>-0.021451614017448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005003877298964734</v>
+      </c>
+      <c r="G43">
+        <v>0.0145488854492153</v>
+      </c>
+      <c r="H43">
+        <v>0.04580853722670693</v>
+      </c>
+      <c r="I43">
+        <v>0.02176480852846878</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02673246876438126</v>
+        <v>0.01618312007877967</v>
       </c>
       <c r="C44">
-        <v>0.005117420961703436</v>
+        <v>-0.03401498345529167</v>
       </c>
       <c r="D44">
-        <v>0.06460082890640831</v>
+        <v>0.0001623492901582072</v>
       </c>
       <c r="E44">
-        <v>0.02948346709943167</v>
+        <v>-0.00477057627628907</v>
       </c>
       <c r="F44">
-        <v>-0.1067417311533079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01089393976451262</v>
+      </c>
+      <c r="G44">
+        <v>0.1097103169063931</v>
+      </c>
+      <c r="H44">
+        <v>0.09565897983637071</v>
+      </c>
+      <c r="I44">
+        <v>0.04976216686782801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02903017799017786</v>
+        <v>0.02117525025877043</v>
       </c>
       <c r="C46">
-        <v>-0.008058057247618192</v>
+        <v>-0.03058688488550826</v>
       </c>
       <c r="D46">
-        <v>0.05480670428407158</v>
+        <v>-0.007712163400856356</v>
       </c>
       <c r="E46">
-        <v>0.02223149420728444</v>
+        <v>-0.02234186952722369</v>
       </c>
       <c r="F46">
-        <v>-0.01072706466912595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03052720160599285</v>
+      </c>
+      <c r="G46">
+        <v>0.04167725387082113</v>
+      </c>
+      <c r="H46">
+        <v>0.06436196149732855</v>
+      </c>
+      <c r="I46">
+        <v>0.02086969945432987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08369897429168137</v>
+        <v>0.080300526411685</v>
       </c>
       <c r="C47">
-        <v>-0.02095858449160573</v>
+        <v>-0.03092471201333269</v>
       </c>
       <c r="D47">
-        <v>0.03711222695823565</v>
+        <v>-0.005934998773467533</v>
       </c>
       <c r="E47">
-        <v>0.01720589658039282</v>
+        <v>-0.03408867603007348</v>
       </c>
       <c r="F47">
-        <v>0.03158565494706544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0004154226957486903</v>
+      </c>
+      <c r="G47">
+        <v>-0.02519354730425313</v>
+      </c>
+      <c r="H47">
+        <v>0.06832746898479264</v>
+      </c>
+      <c r="I47">
+        <v>0.02779661504052103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01221542364532366</v>
+        <v>0.01959923252959908</v>
       </c>
       <c r="C48">
-        <v>-0.007601849335009634</v>
+        <v>-0.01218909654984711</v>
       </c>
       <c r="D48">
-        <v>0.03272602384960667</v>
+        <v>-0.0007328572580134589</v>
       </c>
       <c r="E48">
-        <v>0.01584576304238363</v>
+        <v>-0.009819585769371321</v>
       </c>
       <c r="F48">
-        <v>-0.03107310867794951</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01357563012835167</v>
+      </c>
+      <c r="G48">
+        <v>0.0261719225577785</v>
+      </c>
+      <c r="H48">
+        <v>0.03048615426597845</v>
+      </c>
+      <c r="I48">
+        <v>0.01803166095747064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08082784669265063</v>
+        <v>0.0789054865932807</v>
       </c>
       <c r="C50">
-        <v>-0.003051862870888641</v>
+        <v>-0.04560335476753734</v>
       </c>
       <c r="D50">
-        <v>0.03705265829055197</v>
+        <v>0.005767955761492455</v>
       </c>
       <c r="E50">
-        <v>-0.001587113012558319</v>
+        <v>-0.01974222348577543</v>
       </c>
       <c r="F50">
-        <v>0.01304806540335644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0005848530785040468</v>
+      </c>
+      <c r="G50">
+        <v>-0.00947066587351795</v>
+      </c>
+      <c r="H50">
+        <v>0.05051115637818257</v>
+      </c>
+      <c r="I50">
+        <v>-0.003849496485255597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04503043409505537</v>
+        <v>0.0295900627862527</v>
       </c>
       <c r="C51">
-        <v>0.002220166010259608</v>
+        <v>0.002041532567842609</v>
       </c>
       <c r="D51">
-        <v>0.03001234248292006</v>
+        <v>-0.009281306079975161</v>
       </c>
       <c r="E51">
-        <v>-0.02873645402788979</v>
+        <v>0.005191984358367294</v>
       </c>
       <c r="F51">
-        <v>-0.05907919037332204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.008270030146015059</v>
+      </c>
+      <c r="G51">
+        <v>0.08065979048761303</v>
+      </c>
+      <c r="H51">
+        <v>0.08335059833280076</v>
+      </c>
+      <c r="I51">
+        <v>0.05609186729474829</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1202444687251929</v>
+        <v>0.1091378270988161</v>
       </c>
       <c r="C53">
-        <v>-0.02084372848788855</v>
+        <v>-0.05706536464754632</v>
       </c>
       <c r="D53">
-        <v>0.0687799010109033</v>
+        <v>-0.01075754008762687</v>
       </c>
       <c r="E53">
-        <v>0.01183043986949002</v>
+        <v>-0.04338630252224986</v>
       </c>
       <c r="F53">
-        <v>0.0751986283621069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02585898122814305</v>
+      </c>
+      <c r="G53">
+        <v>-0.0584742214927668</v>
+      </c>
+      <c r="H53">
+        <v>0.02421322054400125</v>
+      </c>
+      <c r="I53">
+        <v>0.02014940098043482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02298543097723041</v>
+        <v>0.02578647957981262</v>
       </c>
       <c r="C54">
-        <v>-0.02264340769292585</v>
+        <v>-0.006051332094613501</v>
       </c>
       <c r="D54">
-        <v>0.02890664072310264</v>
+        <v>0.004252138504787059</v>
       </c>
       <c r="E54">
-        <v>0.022268684386356</v>
+        <v>-0.02864588551873304</v>
       </c>
       <c r="F54">
-        <v>-0.02647315066278069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01542089617975649</v>
+      </c>
+      <c r="G54">
+        <v>0.02776702946764129</v>
+      </c>
+      <c r="H54">
+        <v>0.06046912938159819</v>
+      </c>
+      <c r="I54">
+        <v>0.02947237874341235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.106147725687016</v>
+        <v>0.09401842545070623</v>
       </c>
       <c r="C55">
-        <v>-0.02140435397630244</v>
+        <v>-0.05357276031822637</v>
       </c>
       <c r="D55">
-        <v>0.02264719832206042</v>
+        <v>0.006074778663534021</v>
       </c>
       <c r="E55">
-        <v>0.04558879560179913</v>
+        <v>-0.03949598998268935</v>
       </c>
       <c r="F55">
-        <v>0.05150068012637733</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01537109465116257</v>
+      </c>
+      <c r="G55">
+        <v>-0.05227345931449801</v>
+      </c>
+      <c r="H55">
+        <v>0.02911622688508025</v>
+      </c>
+      <c r="I55">
+        <v>-0.01550986238212154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1430060824160068</v>
+        <v>0.1449888628900722</v>
       </c>
       <c r="C56">
-        <v>-0.06122747060368421</v>
+        <v>-0.05285218437542951</v>
       </c>
       <c r="D56">
-        <v>0.04482824457285763</v>
+        <v>-0.004082570686427703</v>
       </c>
       <c r="E56">
-        <v>0.03894957946511687</v>
+        <v>-0.06783284529218388</v>
       </c>
       <c r="F56">
-        <v>0.1115445679949098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0405334037214122</v>
+      </c>
+      <c r="G56">
+        <v>-0.1036709776573171</v>
+      </c>
+      <c r="H56">
+        <v>-0.008806876604766199</v>
+      </c>
+      <c r="I56">
+        <v>-0.01801067129935547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06421077738161998</v>
+        <v>0.05585137634100293</v>
       </c>
       <c r="C57">
-        <v>-0.01412767694449859</v>
+        <v>-0.0220814094993495</v>
       </c>
       <c r="D57">
-        <v>0.05157725218151986</v>
+        <v>-0.0216764238305759</v>
       </c>
       <c r="E57">
-        <v>-0.006850852879171155</v>
+        <v>0.01510651009710431</v>
       </c>
       <c r="F57">
-        <v>-0.06328352427968849</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03491990050862209</v>
+      </c>
+      <c r="G57">
+        <v>0.05626169766010379</v>
+      </c>
+      <c r="H57">
+        <v>0.03037834100109068</v>
+      </c>
+      <c r="I57">
+        <v>0.02878238514801423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2144049904754796</v>
+        <v>0.1907076439439779</v>
       </c>
       <c r="C58">
-        <v>-0.02033700815264204</v>
+        <v>-0.1151311716980589</v>
       </c>
       <c r="D58">
-        <v>0.1427167871947383</v>
+        <v>-0.1103327054775377</v>
       </c>
       <c r="E58">
-        <v>0.02077981537370359</v>
+        <v>0.01536490456085676</v>
       </c>
       <c r="F58">
-        <v>-0.279640619897955</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.04965182901780998</v>
+      </c>
+      <c r="G58">
+        <v>0.3882203439988338</v>
+      </c>
+      <c r="H58">
+        <v>0.3816095541538673</v>
+      </c>
+      <c r="I58">
+        <v>-0.3358612130624833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.05713007015197478</v>
+        <v>0.0976554911991705</v>
       </c>
       <c r="C59">
-        <v>-0.1248829023325807</v>
+        <v>0.2079288291941321</v>
       </c>
       <c r="D59">
-        <v>-0.1249687450348863</v>
+        <v>-0.004258796950662095</v>
       </c>
       <c r="E59">
-        <v>-0.07736311498149329</v>
+        <v>-0.01233101427595823</v>
       </c>
       <c r="F59">
-        <v>-0.02776031553552165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04153693375200678</v>
+      </c>
+      <c r="G59">
+        <v>0.04959900949560283</v>
+      </c>
+      <c r="H59">
+        <v>0.02214696075042339</v>
+      </c>
+      <c r="I59">
+        <v>0.02174909234171903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1776855465713595</v>
+        <v>0.1967536562460882</v>
       </c>
       <c r="C60">
-        <v>-0.07544944124998641</v>
+        <v>0.02387241541217544</v>
       </c>
       <c r="D60">
-        <v>0.02098991948747649</v>
+        <v>-0.06021717966321996</v>
       </c>
       <c r="E60">
-        <v>-0.07287783517944067</v>
+        <v>-0.01663196366121246</v>
       </c>
       <c r="F60">
-        <v>-0.1458558193950124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.04520913011190253</v>
+      </c>
+      <c r="G60">
+        <v>0.2013707767681701</v>
+      </c>
+      <c r="H60">
+        <v>-0.3596638524508958</v>
+      </c>
+      <c r="I60">
+        <v>0.04366901092094209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03313745256805462</v>
+        <v>0.03495236494580444</v>
       </c>
       <c r="C61">
-        <v>-0.006046113887752643</v>
+        <v>-0.03644604958163825</v>
       </c>
       <c r="D61">
-        <v>0.02091078409869388</v>
+        <v>-0.002540840550895608</v>
       </c>
       <c r="E61">
-        <v>0.01927259402331419</v>
+        <v>-0.01520679013453</v>
       </c>
       <c r="F61">
-        <v>-0.02858240368495059</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02088168564161108</v>
+      </c>
+      <c r="G61">
+        <v>0.03408982018305603</v>
+      </c>
+      <c r="H61">
+        <v>-0.01482674318886615</v>
+      </c>
+      <c r="I61">
+        <v>0.01655876951536729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.0304602662977678</v>
+        <v>0.0251264437252824</v>
       </c>
       <c r="C63">
-        <v>-0.01648267343404536</v>
+        <v>-0.02499538282011068</v>
       </c>
       <c r="D63">
-        <v>0.0441716531466152</v>
+        <v>-0.003953862853655236</v>
       </c>
       <c r="E63">
-        <v>0.01880703729624007</v>
+        <v>-0.016606068177199</v>
       </c>
       <c r="F63">
-        <v>-0.04056919516838443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01617296309146491</v>
+      </c>
+      <c r="G63">
+        <v>0.02413760076768884</v>
+      </c>
+      <c r="H63">
+        <v>0.04868920907641892</v>
+      </c>
+      <c r="I63">
+        <v>0.001176126181561922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04886605983832634</v>
+        <v>0.0489291928325649</v>
       </c>
       <c r="C64">
-        <v>-0.006257585515484125</v>
+        <v>-0.04512728368883354</v>
       </c>
       <c r="D64">
-        <v>0.04958418840743217</v>
+        <v>0.005133291910100308</v>
       </c>
       <c r="E64">
-        <v>0.06230569720328197</v>
+        <v>-0.0200821109622536</v>
       </c>
       <c r="F64">
-        <v>-0.03262255806000185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02266535560700224</v>
+      </c>
+      <c r="G64">
+        <v>0.03568425382814247</v>
+      </c>
+      <c r="H64">
+        <v>0.03216419935815851</v>
+      </c>
+      <c r="I64">
+        <v>0.06120664347327077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.005345748554835437</v>
+        <v>0.03100889085599685</v>
       </c>
       <c r="C65">
-        <v>-9.173535206271703e-05</v>
+        <v>-0.01920332936631343</v>
       </c>
       <c r="D65">
-        <v>-0.0003054447329002205</v>
+        <v>0.0003753926726775033</v>
       </c>
       <c r="E65">
-        <v>-0.006063281861180566</v>
+        <v>-0.0024415178796091</v>
       </c>
       <c r="F65">
-        <v>-0.003679177215717364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02681268787919513</v>
+      </c>
+      <c r="G65">
+        <v>0.01253202703276217</v>
+      </c>
+      <c r="H65">
+        <v>-0.03615350355449347</v>
+      </c>
+      <c r="I65">
+        <v>-0.00754531866893798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05244664746390571</v>
+        <v>0.04861188697052347</v>
       </c>
       <c r="C66">
-        <v>-0.02063182541101196</v>
+        <v>-0.06190507688525811</v>
       </c>
       <c r="D66">
-        <v>0.06464955676808648</v>
+        <v>-0.01876953894963078</v>
       </c>
       <c r="E66">
-        <v>0.03364606232547262</v>
+        <v>-0.03903649207134359</v>
       </c>
       <c r="F66">
-        <v>-0.07274549949192316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04211590221350046</v>
+      </c>
+      <c r="G66">
+        <v>0.06442136015643897</v>
+      </c>
+      <c r="H66">
+        <v>-0.01805911629804597</v>
+      </c>
+      <c r="I66">
+        <v>0.01082097717280192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03545606906695929</v>
+        <v>0.04070442344288404</v>
       </c>
       <c r="C67">
-        <v>-0.0166306800457985</v>
+        <v>0.001539826486315749</v>
       </c>
       <c r="D67">
-        <v>-0.01918825280466481</v>
+        <v>0.00105385478478489</v>
       </c>
       <c r="E67">
-        <v>-0.007431276689540492</v>
+        <v>-0.01682124216964319</v>
       </c>
       <c r="F67">
-        <v>-0.01917312106682987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01241241279887931</v>
+      </c>
+      <c r="G67">
+        <v>0.03449006335192098</v>
+      </c>
+      <c r="H67">
+        <v>0.003012702421955735</v>
+      </c>
+      <c r="I67">
+        <v>0.04536159382564907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.07242622007942952</v>
+        <v>0.1007117973842419</v>
       </c>
       <c r="C68">
-        <v>-0.1180722649394894</v>
+        <v>0.2325036030136547</v>
       </c>
       <c r="D68">
-        <v>-0.1816856894319475</v>
+        <v>0.001572861172548234</v>
       </c>
       <c r="E68">
-        <v>-0.1180689780592767</v>
+        <v>0.0176043887416552</v>
       </c>
       <c r="F68">
-        <v>0.0007301161508879815</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05214991302567368</v>
+      </c>
+      <c r="G68">
+        <v>0.00774255459923094</v>
+      </c>
+      <c r="H68">
+        <v>0.04241613906786614</v>
+      </c>
+      <c r="I68">
+        <v>-0.01766527814298062</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07181091938791503</v>
+        <v>0.06828210841265674</v>
       </c>
       <c r="C69">
-        <v>-0.02659462763401878</v>
+        <v>-0.02530566450212902</v>
       </c>
       <c r="D69">
-        <v>0.02270463384496708</v>
+        <v>-0.008097311511877958</v>
       </c>
       <c r="E69">
-        <v>-0.002367186920108422</v>
+        <v>-0.0368580989146152</v>
       </c>
       <c r="F69">
-        <v>0.01145451189501711</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003949828229122768</v>
+      </c>
+      <c r="G69">
+        <v>-0.009476546020170201</v>
+      </c>
+      <c r="H69">
+        <v>0.04276003796671279</v>
+      </c>
+      <c r="I69">
+        <v>0.02433592545434763</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06883282992816589</v>
+        <v>0.09806835508620211</v>
       </c>
       <c r="C71">
-        <v>-0.1446257788658567</v>
+        <v>0.2514081196331375</v>
       </c>
       <c r="D71">
-        <v>-0.2243149282426641</v>
+        <v>-0.001659174654585599</v>
       </c>
       <c r="E71">
-        <v>-0.1939802426860544</v>
+        <v>0.0214047549099153</v>
       </c>
       <c r="F71">
-        <v>-0.0424154479530206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.08331832090762627</v>
+      </c>
+      <c r="G71">
+        <v>0.03694978363140199</v>
+      </c>
+      <c r="H71">
+        <v>0.0229763599318366</v>
+      </c>
+      <c r="I71">
+        <v>0.01134860219002254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.118902322982053</v>
+        <v>0.1284642846899452</v>
       </c>
       <c r="C72">
-        <v>-0.07732589843740745</v>
+        <v>-0.06941485131972362</v>
       </c>
       <c r="D72">
-        <v>0.05596317554054112</v>
+        <v>-0.01919163943298014</v>
       </c>
       <c r="E72">
-        <v>0.03364030698091798</v>
+        <v>-0.1002728129336343</v>
       </c>
       <c r="F72">
-        <v>-0.02788624271436206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03973111351517827</v>
+      </c>
+      <c r="G72">
+        <v>0.0902382733132843</v>
+      </c>
+      <c r="H72">
+        <v>-0.08628237977034892</v>
+      </c>
+      <c r="I72">
+        <v>0.01796100023154082</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2684868031053392</v>
+        <v>0.2729245229008085</v>
       </c>
       <c r="C73">
-        <v>-0.1161033423884036</v>
+        <v>0.01672006744497664</v>
       </c>
       <c r="D73">
-        <v>-0.02007457321169902</v>
+        <v>-0.09505971182852049</v>
       </c>
       <c r="E73">
-        <v>-0.1133147567005287</v>
+        <v>-0.00856389100395491</v>
       </c>
       <c r="F73">
-        <v>-0.2814299872812252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.01416604620932111</v>
+      </c>
+      <c r="G73">
+        <v>0.2980707345577122</v>
+      </c>
+      <c r="H73">
+        <v>-0.5272111960553335</v>
+      </c>
+      <c r="I73">
+        <v>0.0006123927125655384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1402640269769674</v>
+        <v>0.1363738562060668</v>
       </c>
       <c r="C74">
-        <v>-0.02528557481117767</v>
+        <v>-0.06303695605913978</v>
       </c>
       <c r="D74">
-        <v>0.04190778265334677</v>
+        <v>-0.01297431351358723</v>
       </c>
       <c r="E74">
-        <v>0.01908941967815601</v>
+        <v>-0.05692416308126981</v>
       </c>
       <c r="F74">
-        <v>0.0653038954356283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01738646438855705</v>
+      </c>
+      <c r="G74">
+        <v>-0.08244543359885881</v>
+      </c>
+      <c r="H74">
+        <v>-0.01910737870246816</v>
+      </c>
+      <c r="I74">
+        <v>-0.007175539706288816</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2195616038537342</v>
+        <v>0.2369351780092602</v>
       </c>
       <c r="C75">
-        <v>-0.08493056150467407</v>
+        <v>-0.07076802922127691</v>
       </c>
       <c r="D75">
-        <v>0.08870854457804633</v>
+        <v>-0.03527826333675019</v>
       </c>
       <c r="E75">
-        <v>0.01302920753383247</v>
+        <v>-0.114152585898567</v>
       </c>
       <c r="F75">
-        <v>0.1597112479965425</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.05480052359771646</v>
+      </c>
+      <c r="G75">
+        <v>-0.1559038900146211</v>
+      </c>
+      <c r="H75">
+        <v>0.01907497915256146</v>
+      </c>
+      <c r="I75">
+        <v>0.007738021990249638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2440118880669667</v>
+        <v>0.2419057298274652</v>
       </c>
       <c r="C76">
-        <v>-0.09766156399086905</v>
+        <v>-0.07623706816463391</v>
       </c>
       <c r="D76">
-        <v>0.03779138754607279</v>
+        <v>0.008833423338156034</v>
       </c>
       <c r="E76">
-        <v>0.06760368547946645</v>
+        <v>-0.133628946639134</v>
       </c>
       <c r="F76">
-        <v>0.1429286010742164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05094347564247745</v>
+      </c>
+      <c r="G76">
+        <v>-0.2010879069025166</v>
+      </c>
+      <c r="H76">
+        <v>0.00668376666602893</v>
+      </c>
+      <c r="I76">
+        <v>-0.06925003662753722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1469123398394924</v>
+        <v>0.1000718144678265</v>
       </c>
       <c r="C77">
-        <v>0.03216969700006016</v>
+        <v>-0.08103481616135605</v>
       </c>
       <c r="D77">
-        <v>0.07857625033080225</v>
+        <v>-0.01970035721280481</v>
       </c>
       <c r="E77">
-        <v>0.0114958273541026</v>
+        <v>0.04116013723816167</v>
       </c>
       <c r="F77">
-        <v>-0.2257014112893449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.001852376316190035</v>
+      </c>
+      <c r="G77">
+        <v>0.1557681714147396</v>
+      </c>
+      <c r="H77">
+        <v>0.2234406545613225</v>
+      </c>
+      <c r="I77">
+        <v>-0.06336640344121648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08026750344903026</v>
+        <v>0.05688550844030649</v>
       </c>
       <c r="C78">
-        <v>0.01888745398074146</v>
+        <v>-0.06781270681653136</v>
       </c>
       <c r="D78">
-        <v>0.08083756315279164</v>
+        <v>-0.004972424234911492</v>
       </c>
       <c r="E78">
-        <v>0.05276452875639158</v>
+        <v>-0.0110858119399998</v>
       </c>
       <c r="F78">
-        <v>-0.03941763922846554</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04008831730486219</v>
+      </c>
+      <c r="G78">
+        <v>0.06681149752354314</v>
+      </c>
+      <c r="H78">
+        <v>0.03090134969485921</v>
+      </c>
+      <c r="I78">
+        <v>0.02120850600327431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1447796753905874</v>
+        <v>0.165187060285254</v>
       </c>
       <c r="C80">
-        <v>0.09323218659994853</v>
+        <v>-0.05283898563243383</v>
       </c>
       <c r="D80">
-        <v>-0.5430853616392335</v>
+        <v>0.9689871177385224</v>
       </c>
       <c r="E80">
-        <v>0.7968899507597695</v>
+        <v>0.06586291698573803</v>
       </c>
       <c r="F80">
-        <v>-0.06388763498720136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01837016103315743</v>
+      </c>
+      <c r="G80">
+        <v>0.07099676299512173</v>
+      </c>
+      <c r="H80">
+        <v>-0.02953367230747685</v>
+      </c>
+      <c r="I80">
+        <v>0.04141042755596344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1726803568443045</v>
+        <v>0.1810062515952066</v>
       </c>
       <c r="C81">
-        <v>-0.0680233045891486</v>
+        <v>-0.05336953244415118</v>
       </c>
       <c r="D81">
-        <v>0.04287787751185251</v>
+        <v>-0.01106721381343366</v>
       </c>
       <c r="E81">
-        <v>0.01804668019554948</v>
+        <v>-0.09290687817751141</v>
       </c>
       <c r="F81">
-        <v>0.1476741072295204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.04048535188401958</v>
+      </c>
+      <c r="G81">
+        <v>-0.1426028214266815</v>
+      </c>
+      <c r="H81">
+        <v>0.01851522377094326</v>
+      </c>
+      <c r="I81">
+        <v>-0.04599517663063862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06047395926078152</v>
+        <v>0.04797243067304956</v>
       </c>
       <c r="C83">
-        <v>0.04460715311700066</v>
+        <v>-0.04573429173703777</v>
       </c>
       <c r="D83">
-        <v>0.06695716427822801</v>
+        <v>-0.01632070923635392</v>
       </c>
       <c r="E83">
-        <v>0.008702908809629343</v>
+        <v>0.01343609955401502</v>
       </c>
       <c r="F83">
-        <v>-0.0386370283495585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.002199313391695411</v>
+      </c>
+      <c r="G83">
+        <v>0.0532265020000229</v>
+      </c>
+      <c r="H83">
+        <v>0.02850675016683926</v>
+      </c>
+      <c r="I83">
+        <v>0.02589167266787365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2217845322727577</v>
+        <v>0.2312470698065542</v>
       </c>
       <c r="C85">
-        <v>-0.04577683405881207</v>
+        <v>-0.1018094888868057</v>
       </c>
       <c r="D85">
-        <v>0.0724811845929707</v>
+        <v>-0.02348604576111061</v>
       </c>
       <c r="E85">
-        <v>0.05892523060391314</v>
+        <v>-0.0947207272125469</v>
       </c>
       <c r="F85">
-        <v>0.198606716164602</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.0677585330059256</v>
+      </c>
+      <c r="G85">
+        <v>-0.1971988014392892</v>
+      </c>
+      <c r="H85">
+        <v>0.01674998457401314</v>
+      </c>
+      <c r="I85">
+        <v>-0.02280300064793728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02152476223322698</v>
+        <v>0.01606818333934871</v>
       </c>
       <c r="C86">
-        <v>0.008558609492557961</v>
+        <v>-0.04517423071809371</v>
       </c>
       <c r="D86">
-        <v>0.06526892190520743</v>
+        <v>-0.005314420719720736</v>
       </c>
       <c r="E86">
-        <v>0.02700782144217063</v>
+        <v>-0.02246644904716959</v>
       </c>
       <c r="F86">
-        <v>-0.07605922067751392</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.004981263855622969</v>
+      </c>
+      <c r="G86">
+        <v>0.08132035868734053</v>
+      </c>
+      <c r="H86">
+        <v>0.05979724376317601</v>
+      </c>
+      <c r="I86">
+        <v>0.003784078964106143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01456262083062297</v>
+        <v>0.02438194273936137</v>
       </c>
       <c r="C87">
-        <v>-0.03626653290276186</v>
+        <v>0.008652054511111316</v>
       </c>
       <c r="D87">
-        <v>-0.03774746627505986</v>
+        <v>0.001936807886774283</v>
       </c>
       <c r="E87">
-        <v>-0.02760517734450358</v>
+        <v>-0.002648639178720906</v>
       </c>
       <c r="F87">
-        <v>-0.1030575474622836</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.006925332868630191</v>
+      </c>
+      <c r="G87">
+        <v>0.1050739193606525</v>
+      </c>
+      <c r="H87">
+        <v>0.003389320584957843</v>
+      </c>
+      <c r="I87">
+        <v>-0.01606510814614922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.012904898435483</v>
+        <v>0.03282609713856219</v>
       </c>
       <c r="C88">
-        <v>-0.01159712892856616</v>
+        <v>0.00344038052581913</v>
       </c>
       <c r="D88">
-        <v>-0.004765864316104442</v>
+        <v>0.00437622955176476</v>
       </c>
       <c r="E88">
-        <v>0.01867449356487668</v>
+        <v>-0.01483814683372624</v>
       </c>
       <c r="F88">
-        <v>0.01036460808059141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0009215144169209835</v>
+      </c>
+      <c r="G88">
+        <v>-0.00693203942651992</v>
+      </c>
+      <c r="H88">
+        <v>0.01702334167602263</v>
+      </c>
+      <c r="I88">
+        <v>0.06095230482005316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.106750144097098</v>
+        <v>0.1645599600657897</v>
       </c>
       <c r="C89">
-        <v>-0.1416666343356999</v>
+        <v>0.3757159224899088</v>
       </c>
       <c r="D89">
-        <v>-0.2474394582265411</v>
+        <v>-0.02352030290649352</v>
       </c>
       <c r="E89">
-        <v>-0.2069091150209569</v>
+        <v>0.03252108100727376</v>
       </c>
       <c r="F89">
-        <v>-0.01651554121071552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0972462124899377</v>
+      </c>
+      <c r="G89">
+        <v>0.01675601598283307</v>
+      </c>
+      <c r="H89">
+        <v>0.1025646470047216</v>
+      </c>
+      <c r="I89">
+        <v>-0.001154502972361565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08564849568450113</v>
+        <v>0.1147359497673999</v>
       </c>
       <c r="C90">
-        <v>-0.1384639593181809</v>
+        <v>0.312966963767158</v>
       </c>
       <c r="D90">
-        <v>-0.2516445789439652</v>
+        <v>7.65702981208667e-05</v>
       </c>
       <c r="E90">
-        <v>-0.1389283633415322</v>
+        <v>0.02956667280292694</v>
       </c>
       <c r="F90">
-        <v>-0.01588064818117459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.08704919083264649</v>
+      </c>
+      <c r="G90">
+        <v>-0.01589923925798141</v>
+      </c>
+      <c r="H90">
+        <v>0.06843747181021045</v>
+      </c>
+      <c r="I90">
+        <v>-0.003575507653380597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2809949401556966</v>
+        <v>0.2710917176399645</v>
       </c>
       <c r="C91">
-        <v>-0.05081841960989264</v>
+        <v>-0.1208267676716217</v>
       </c>
       <c r="D91">
-        <v>0.09977767417614722</v>
+        <v>-0.02938705212905775</v>
       </c>
       <c r="E91">
-        <v>0.06123674255059934</v>
+        <v>-0.1131452035743179</v>
       </c>
       <c r="F91">
-        <v>0.2344281504929216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03702019639807431</v>
+      </c>
+      <c r="G91">
+        <v>-0.2509455038518585</v>
+      </c>
+      <c r="H91">
+        <v>0.03730125886421409</v>
+      </c>
+      <c r="I91">
+        <v>-0.07105476767233616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1351260617234616</v>
+        <v>0.2020910032030605</v>
       </c>
       <c r="C92">
-        <v>-0.111200847198111</v>
+        <v>0.3042742588985302</v>
       </c>
       <c r="D92">
-        <v>-0.2751091646272815</v>
+        <v>0.01567181089829464</v>
       </c>
       <c r="E92">
-        <v>-0.1469681105322558</v>
+        <v>-0.01313146959115579</v>
       </c>
       <c r="F92">
-        <v>0.02179209780228963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1518010339795501</v>
+      </c>
+      <c r="G92">
+        <v>-0.07996171498389029</v>
+      </c>
+      <c r="H92">
+        <v>0.1748906241929193</v>
+      </c>
+      <c r="I92">
+        <v>-0.002170067129105605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09135751864656957</v>
+        <v>0.1446832331456658</v>
       </c>
       <c r="C93">
-        <v>-0.1362583437696258</v>
+        <v>0.3752587480448468</v>
       </c>
       <c r="D93">
-        <v>-0.311478317525423</v>
+        <v>-0.0108046172698127</v>
       </c>
       <c r="E93">
-        <v>-0.1957977159917562</v>
+        <v>0.05266246145460021</v>
       </c>
       <c r="F93">
-        <v>0.03191668680938328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.139595485287624</v>
+      </c>
+      <c r="G93">
+        <v>-0.02207928789610698</v>
+      </c>
+      <c r="H93">
+        <v>0.01177592422217389</v>
+      </c>
+      <c r="I93">
+        <v>0.02669830134947724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2709586812875138</v>
+        <v>0.2958788545833353</v>
       </c>
       <c r="C94">
-        <v>-0.1060921573729547</v>
+        <v>-0.03531681604770832</v>
       </c>
       <c r="D94">
-        <v>-0.01058938651948667</v>
+        <v>-0.04164605406643685</v>
       </c>
       <c r="E94">
-        <v>0.004354416435757481</v>
+        <v>-0.1182454152025752</v>
       </c>
       <c r="F94">
-        <v>0.2381826647962661</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07214064801172622</v>
+      </c>
+      <c r="G94">
+        <v>-0.2872909662886062</v>
+      </c>
+      <c r="H94">
+        <v>0.01865479038619171</v>
+      </c>
+      <c r="I94">
+        <v>-0.2197594014743244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1435674187999307</v>
+        <v>0.1194250614599268</v>
       </c>
       <c r="C95">
-        <v>0.02001088569508253</v>
+        <v>-0.08795786143774785</v>
       </c>
       <c r="D95">
-        <v>0.1834590683889872</v>
+        <v>-0.08990911529062398</v>
       </c>
       <c r="E95">
-        <v>0.02586385049700605</v>
+        <v>-0.06699873088512637</v>
       </c>
       <c r="F95">
-        <v>0.4574039461236689</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03910757001565904</v>
+      </c>
+      <c r="G95">
+        <v>-0.0647294394934111</v>
+      </c>
+      <c r="H95">
+        <v>0.1259763669277039</v>
+      </c>
+      <c r="I95">
+        <v>0.8707953098610407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2042586697176867</v>
+        <v>0.2100403205284885</v>
       </c>
       <c r="C98">
-        <v>-0.04888020977996719</v>
+        <v>0.0175888368104507</v>
       </c>
       <c r="D98">
-        <v>-0.004122610705727822</v>
+        <v>-0.06285517694337864</v>
       </c>
       <c r="E98">
-        <v>-0.08417741444492656</v>
+        <v>-0.003582270172845954</v>
       </c>
       <c r="F98">
-        <v>-0.1065136803675875</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01309691485786729</v>
+      </c>
+      <c r="G98">
+        <v>0.2230138133382162</v>
+      </c>
+      <c r="H98">
+        <v>-0.3694975482395427</v>
+      </c>
+      <c r="I98">
+        <v>0.01490810242058731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002095407894786598</v>
+        <v>0.01447980580519392</v>
       </c>
       <c r="C101">
-        <v>-0.01360076529218612</v>
+        <v>-0.02596523487752974</v>
       </c>
       <c r="D101">
-        <v>0.0617576669667039</v>
+        <v>0.0007532673030826441</v>
       </c>
       <c r="E101">
-        <v>0.0468592938156395</v>
+        <v>-0.02395241789849051</v>
       </c>
       <c r="F101">
-        <v>-0.01854683988152154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03487726966684684</v>
+      </c>
+      <c r="G101">
+        <v>0.07258538132340758</v>
+      </c>
+      <c r="H101">
+        <v>0.1184357328574827</v>
+      </c>
+      <c r="I101">
+        <v>-0.01586213928388585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09053677179194575</v>
+        <v>0.1133067195697252</v>
       </c>
       <c r="C102">
-        <v>-0.02169697907161355</v>
+        <v>-0.04189288743535574</v>
       </c>
       <c r="D102">
-        <v>0.03948936852727473</v>
+        <v>-0.005561323359750115</v>
       </c>
       <c r="E102">
-        <v>0.04439626464792964</v>
+        <v>-0.04014101451541242</v>
       </c>
       <c r="F102">
-        <v>0.1083663253528838</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04013426911631277</v>
+      </c>
+      <c r="G102">
+        <v>-0.114562992076492</v>
+      </c>
+      <c r="H102">
+        <v>0.009055237453903938</v>
+      </c>
+      <c r="I102">
+        <v>-0.0075610979379645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01580303775465506</v>
+        <v>0.02466470138912972</v>
       </c>
       <c r="C103">
-        <v>-0.009827785586207959</v>
+        <v>-0.01043799087702669</v>
       </c>
       <c r="D103">
-        <v>0.0005616251904075404</v>
+        <v>0.007115143706549056</v>
       </c>
       <c r="E103">
-        <v>0.004052461119524499</v>
+        <v>-0.01308988552926015</v>
       </c>
       <c r="F103">
-        <v>0.01968468824227613</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.009245564203201755</v>
+      </c>
+      <c r="G103">
+        <v>-0.01979922460887353</v>
+      </c>
+      <c r="H103">
+        <v>0.01655216156375811</v>
+      </c>
+      <c r="I103">
+        <v>0.002202209250218637</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.07079647222842318</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.1952725853602409</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04585844751274928</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.5241980747539101</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.8073182809647665</v>
+      </c>
+      <c r="G104">
+        <v>-0.08476320083787851</v>
+      </c>
+      <c r="H104">
+        <v>0.0290976464707171</v>
+      </c>
+      <c r="I104">
+        <v>0.07321167344161512</v>
       </c>
     </row>
   </sheetData>
